--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04130914496511429</v>
+        <v>0.02355713883329483</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.35079201334694</v>
+        <v>-51.15729736824031</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.173955795634702</v>
+        <v>-5.388595340581579</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05257187362666985</v>
+        <v>0.0562020186959262</v>
       </c>
       <c r="H3" t="n">
-        <v>37.06081579255554</v>
+        <v>46.52501423773307</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4647061686662265</v>
+        <v>-0.4506179472549399</v>
       </c>
       <c r="H4" t="n">
-        <v>2.636710301895182</v>
+        <v>0.4748659954656105</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4741327150897636</v>
+        <v>-0.4537369159229148</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.9820217310916168</v>
+        <v>5.241484818969258</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2420024275499506</v>
+        <v>0.2364047493654702</v>
       </c>
       <c r="H6" t="n">
-        <v>3.58289499972556</v>
+        <v>1.186953283373938</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.251836274750488</v>
+        <v>0.2468848717739781</v>
       </c>
       <c r="H7" t="n">
-        <v>14.17282927475655</v>
+        <v>11.92805462000246</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1744681643044654</v>
+        <v>0.1631718896421494</v>
       </c>
       <c r="H8" t="n">
-        <v>4.59318370103561</v>
+        <v>-2.178901828741076</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1672986160585424</v>
+        <v>0.1791090745465888</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.739769352959252</v>
+        <v>4.126324005474364</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.007714722859426132</v>
+        <v>-0.006787596473818972</v>
       </c>
       <c r="H10" t="n">
-        <v>62.7756601059036</v>
+        <v>-43.21389331678113</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01147128367607533</v>
+        <v>0.002798499789436273</v>
       </c>
       <c r="H11" t="n">
-        <v>-21.72601677664511</v>
+        <v>119.0954850175792</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.12611623605033</v>
+        <v>0.1333231142898378</v>
       </c>
       <c r="H12" t="n">
-        <v>-7.757359896705481</v>
+        <v>-2.486179146830544</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1433369379414577</v>
+        <v>0.1474368694660218</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00298342710636</v>
+        <v>18.29246598438195</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2560468502687159</v>
+        <v>0.246215433374287</v>
       </c>
       <c r="H14" t="n">
-        <v>3.522925734375528</v>
+        <v>-0.4520383784714342</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26963248268616</v>
+        <v>0.2753852792815891</v>
       </c>
       <c r="H15" t="n">
-        <v>6.710334564192078</v>
+        <v>8.987073788124961</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1397042599087502</v>
+        <v>0.1450696377579788</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.969229445368123</v>
+        <v>-5.473169409324513</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1459849299783648</v>
+        <v>0.1416731963598719</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.330968325376626</v>
+        <v>-6.186133675665856</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01367242791270897</v>
+        <v>-0.007998361608780343</v>
       </c>
       <c r="H18" t="n">
-        <v>-16.50377901505573</v>
+        <v>51.15476397696379</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001422417813158065</v>
+        <v>-0.003560084408674118</v>
       </c>
       <c r="H19" t="n">
-        <v>-268.9204098453139</v>
+        <v>-322.7807834197287</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1392796850581773</v>
+        <v>0.1382315836625981</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4453357065238551</v>
+        <v>-0.3105311414623032</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1446158562151058</v>
+        <v>0.1457437049806174</v>
       </c>
       <c r="H21" t="n">
-        <v>1.063200393647646</v>
+        <v>1.851385097495627</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1724128149196706</v>
+        <v>0.1794181005538811</v>
       </c>
       <c r="H22" t="n">
-        <v>-7.413148341510865</v>
+        <v>-3.65126241590734</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1841770064433388</v>
+        <v>0.1757700528451485</v>
       </c>
       <c r="H23" t="n">
-        <v>2.628156115321717</v>
+        <v>-2.05641424984367</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.09529372451713101</v>
+        <v>-0.09728378513350405</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9496693081386178</v>
+        <v>-3.057845498585382</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1000533198262763</v>
+        <v>-0.092898797592864</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4466139540798263</v>
+        <v>6.736031599843242</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2341509300800907</v>
+        <v>0.2273097649192087</v>
       </c>
       <c r="H26" t="n">
-        <v>1.742626116983711</v>
+        <v>-1.229978386146269</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2506675932714517</v>
+        <v>0.2354548525820899</v>
       </c>
       <c r="H27" t="n">
-        <v>7.780530974835244</v>
+        <v>1.239449027691362</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06509561858553027</v>
+        <v>0.06583917844091934</v>
       </c>
       <c r="H28" t="n">
-        <v>10.70069180391654</v>
+        <v>11.96517921762839</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09317691164445713</v>
+        <v>0.07379557224227279</v>
       </c>
       <c r="H29" t="n">
-        <v>32.00757019060887</v>
+        <v>4.549228028717085</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02355713883329483</v>
+        <v>0.04224063622150328</v>
       </c>
       <c r="H2" t="n">
-        <v>-51.15729736824031</v>
+        <v>-12.41946449679861</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.388595340581579</v>
+        <v>-32.09104132959953</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0562020186959262</v>
+        <v>0.04623746702836513</v>
       </c>
       <c r="H3" t="n">
-        <v>46.52501423773307</v>
+        <v>20.54630192738958</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4506179472549399</v>
+        <v>-0.4471146569619693</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4748659954656105</v>
+        <v>1.248615549802442</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4537369159229148</v>
+        <v>-0.4764070097706937</v>
       </c>
       <c r="H5" t="n">
-        <v>5.241484818969258</v>
+        <v>0.5070575404202432</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2364047493654702</v>
+        <v>0.2308374342167992</v>
       </c>
       <c r="H6" t="n">
-        <v>1.186953283373938</v>
+        <v>-1.195992318922308</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2468848717739781</v>
+        <v>0.2575500040655732</v>
       </c>
       <c r="H7" t="n">
-        <v>11.92805462000246</v>
+        <v>16.76321321471805</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1631718896421494</v>
+        <v>0.180416794454186</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.178901828741076</v>
+        <v>8.159371082553912</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1791090745465888</v>
+        <v>0.1807443943935199</v>
       </c>
       <c r="H9" t="n">
-        <v>4.126324005474364</v>
+        <v>5.077028734786327</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006787596473818972</v>
+        <v>-0.005010809582411317</v>
       </c>
       <c r="H10" t="n">
-        <v>-43.21389331678113</v>
+        <v>-5.724839673976486</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002798499789436273</v>
+        <v>-0.01434303962103854</v>
       </c>
       <c r="H11" t="n">
-        <v>119.0954850175792</v>
+        <v>2.130670431367979</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1333231142898378</v>
+        <v>0.1270353510948031</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.486179146830544</v>
+        <v>-7.085110225164216</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1474368694660218</v>
+        <v>0.1482012788414959</v>
       </c>
       <c r="H13" t="n">
-        <v>18.29246598438195</v>
+        <v>18.90577166819024</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.246215433374287</v>
+        <v>0.259775015066963</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4520383784714342</v>
+        <v>5.030269125358084</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2753852792815891</v>
+        <v>0.2757615043332422</v>
       </c>
       <c r="H15" t="n">
-        <v>8.987073788124961</v>
+        <v>9.135969428343724</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1450696377579788</v>
+        <v>0.147924612147385</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.473169409324513</v>
+        <v>-3.612878830131451</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1416731963598719</v>
+        <v>0.1504447085489411</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.186133675665856</v>
+        <v>-0.3777698276636051</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.007998361608780343</v>
+        <v>-0.007563514362421058</v>
       </c>
       <c r="H18" t="n">
-        <v>51.15476397696379</v>
+        <v>53.81033488276903</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.003560084408674118</v>
+        <v>-0.009686113988481531</v>
       </c>
       <c r="H19" t="n">
-        <v>-322.7807834197287</v>
+        <v>-1050.282518685604</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1382315836625981</v>
+        <v>0.1437065336997196</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3105311414623032</v>
+        <v>3.637878091552599</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1457437049806174</v>
+        <v>0.1421860672504419</v>
       </c>
       <c r="H21" t="n">
-        <v>1.851385097495627</v>
+        <v>-0.634830897505152</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1794181005538811</v>
+        <v>0.1755136728354508</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.65126241590734</v>
+        <v>-5.747966597357117</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1757700528451485</v>
+        <v>0.1880654429515226</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.05641424984367</v>
+        <v>4.794892760208906</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.09728378513350405</v>
+        <v>-0.1067871885409982</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.057845498585382</v>
+        <v>-13.1253020509411</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.092898797592864</v>
+        <v>-0.09419123910351263</v>
       </c>
       <c r="H25" t="n">
-        <v>6.736031599843242</v>
+        <v>5.438509701481843</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2273097649192087</v>
+        <v>0.2253044569855425</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.229978386146269</v>
+        <v>-2.101319342488557</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2354548525820899</v>
+        <v>0.2473133869698949</v>
       </c>
       <c r="H27" t="n">
-        <v>1.239449027691362</v>
+        <v>6.338309698990314</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06583917844091934</v>
+        <v>0.0664943628212393</v>
       </c>
       <c r="H28" t="n">
-        <v>11.96517921762839</v>
+        <v>13.07937654360114</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07379557224227279</v>
+        <v>0.09116362591383118</v>
       </c>
       <c r="H29" t="n">
-        <v>4.549228028717085</v>
+        <v>29.15526533623171</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>